--- a/data-raw/FixedAUSbgf.xlsx
+++ b/data-raw/FixedAUSbgf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A414F39-5AB2-0B4A-A7F7-DE1D6568E95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E864B-49EB-7342-80F7-23D5B342160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="500" windowWidth="31840" windowHeight="28280" activeTab="1" xr2:uid="{3F0F6FF8-C5D6-B14F-86E6-88E09580DB65}"/>
+    <workbookView xWindow="13420" yWindow="500" windowWidth="31840" windowHeight="28280" activeTab="2" xr2:uid="{3F0F6FF8-C5D6-B14F-86E6-88E09580DB65}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>Year range</t>
   </si>
@@ -151,18 +151,6 @@
     <t>Flow</t>
   </si>
   <si>
-    <t>Flow.aggregation.point</t>
-  </si>
-  <si>
-    <t>Ledger.side</t>
-  </si>
-  <si>
-    <t>Last.stage</t>
-  </si>
-  <si>
-    <t>Energy.type</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -221,6 +209,18 @@
   </si>
   <si>
     <t xml:space="preserve">consumes Blast furnace gas, according to the IEA's assumed efficiency </t>
+  </si>
+  <si>
+    <t>EnergyType</t>
+  </si>
+  <si>
+    <t>LastStage</t>
+  </si>
+  <si>
+    <t>LedgerSide</t>
+  </si>
+  <si>
+    <t>FlowAggregationPoint</t>
   </si>
 </sst>
 </file>
@@ -3635,9 +3635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3675,7 +3675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3781,7 +3781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3923,7 +3923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3941,82 +3941,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4028,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70529DBB-F913-8D43-B275-DE3D4306ADF4}">
   <dimension ref="A2:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -5130,8 +5130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6A56A5-32CB-0B4E-A5FA-D51DA80EBA91}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5143,22 +5143,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
         <v>36</v>
@@ -5352,10 +5352,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -5421,7 +5421,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5440,21 +5440,17 @@
         <f>'AUS Blast furnace gas EIOU'!B1</f>
         <v>Method</v>
       </c>
-      <c r="C1" t="str">
-        <f>'AUS Blast furnace gas EIOU'!C1</f>
-        <v>Energy.type</v>
-      </c>
-      <c r="D1" t="str">
-        <f>'AUS Blast furnace gas EIOU'!D1</f>
-        <v>Last.stage</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'AUS Blast furnace gas EIOU'!E1</f>
-        <v>Ledger.side</v>
-      </c>
-      <c r="F1" t="str">
-        <f>'AUS Blast furnace gas EIOU'!F1</f>
-        <v>Flow.aggregation.point</v>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
       </c>
       <c r="G1" t="str">
         <f>'AUS Blast furnace gas EIOU'!G1</f>
@@ -5679,5 +5675,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>